--- a/data/cobiot-database.xlsx
+++ b/data/cobiot-database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glenn\Box\reviews\cobiot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://personalmicrosoftsoftware0-my.sharepoint.com/personal/jop_personalmicrosoftsoftware_ucla_edu/Documents/Documents/github/jopark.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21E199A1-E1DC-426C-8CDC-132586B3B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{21E199A1-E1DC-426C-8CDC-132586B3B172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC233271-EF4C-4FD2-AAF1-883C851A4B5C}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="5535" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -10851,21 +10851,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2645"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111:F116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="62.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
